--- a/other/example_calculations.xlsx
+++ b/other/example_calculations.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Dropbox\other_projects\ethglobal_hackathon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Dropbox\other_projects\ethglobal_hackathon\Dollar_Hedge\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB971F5D-486D-4097-9642-219F45BFFA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B908A78E-EF82-4552-AB76-5996CB428444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{25BBC0D7-EE17-4FED-9412-958CFE8270A9}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{25BBC0D7-EE17-4FED-9412-958CFE8270A9}"/>
   </bookViews>
   <sheets>
     <sheet name="v0_0_demo" sheetId="5" r:id="rId1"/>
     <sheet name="ReadMe" sheetId="3" r:id="rId2"/>
     <sheet name="v0_0_0" sheetId="1" r:id="rId3"/>
     <sheet name="v0_0_1" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>EUR/USD</t>
   </si>
@@ -81,21 +81,6 @@
     <t>EUR_Token</t>
   </si>
   <si>
-    <t>aDais</t>
-  </si>
-  <si>
-    <t>aDaiu</t>
-  </si>
-  <si>
-    <t>interest rate (payed to Unstable holders)</t>
-  </si>
-  <si>
-    <t>aEURu</t>
-  </si>
-  <si>
-    <t>aEURs</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -115,6 +100,24 @@
   </si>
   <si>
     <t>Abzug von Mitteln</t>
+  </si>
+  <si>
+    <t>Principal Balance</t>
+  </si>
+  <si>
+    <t>Total Balance</t>
+  </si>
+  <si>
+    <t>new Principial Balance</t>
+  </si>
+  <si>
+    <t>new Total Balance</t>
+  </si>
+  <si>
+    <t>interest rate</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -243,7 +246,14 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -264,18 +274,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,26 +613,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="15" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="15"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -929,24 +931,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1184,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DB21AF-3D69-49A7-A650-F071EFD0BADE}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1197,34 +1199,34 @@
     <col min="5" max="6" width="9.140625" style="3"/>
     <col min="7" max="9" width="16" style="6" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="16.85546875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="15" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" style="8" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="15" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="15"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1252,8 +1254,8 @@
       <c r="K2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26" t="s">
-        <v>25</v>
+      <c r="L2" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>10</v>
@@ -1270,7 +1272,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>3</v>
@@ -1304,7 +1306,7 @@
         <f>J3/$D$3</f>
         <v>10000</v>
       </c>
-      <c r="L3" s="27"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="9">
         <f>J3/$J$3-1</f>
         <v>0</v>
@@ -1323,7 +1325,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>5</v>
@@ -1360,7 +1362,7 @@
         <f>J5/$D$3</f>
         <v>12000</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="18">
         <v>12000</v>
       </c>
       <c r="M5" s="9">
@@ -1381,10 +1383,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>0.24099999999999999</v>
@@ -1418,7 +1420,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>5</v>
@@ -1455,7 +1457,7 @@
         <f>J9/$D$3</f>
         <v>10000</v>
       </c>
-      <c r="L9" s="28"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="10">
         <f>J9/$J$3-1</f>
         <v>0</v>
@@ -1474,7 +1476,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>5</v>
@@ -1511,7 +1513,7 @@
         <f>J11/$D$3</f>
         <v>15000</v>
       </c>
-      <c r="L11" s="28"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="10">
         <f>J11/$J$3-1</f>
         <v>0.5</v>
@@ -1540,134 +1542,247 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA29A905-D261-426B-9CF8-89A3C26C8298}">
-  <dimension ref="H8:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9153C59D-055B-4000-A9C0-76FE5B0E61A4}">
+  <dimension ref="A4:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="42" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>505</v>
+      </c>
+      <c r="D5" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="D6" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="D7" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="D8" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="D9" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+      <c r="D10" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>500</v>
+      </c>
+      <c r="D11" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>500</v>
+      </c>
+      <c r="D12" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
+      </c>
+      <c r="D13" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>500</v>
+      </c>
+      <c r="D14" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>500</v>
+      </c>
+      <c r="D15" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>500</v>
+      </c>
+      <c r="D16" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="D17" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>500</v>
+      </c>
+      <c r="D18" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>500</v>
+      </c>
+      <c r="D19" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>500</v>
+      </c>
+      <c r="D20" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I9" s="24">
-        <v>-0.04</v>
-      </c>
-      <c r="J9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I10" s="24">
-        <v>-0.03</v>
-      </c>
-      <c r="J10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I11" s="24">
-        <v>-0.02</v>
-      </c>
-      <c r="J11">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I12" s="24">
-        <v>-0.01</v>
-      </c>
-      <c r="J12">
+      <c r="B21">
         <v>500</v>
       </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I13" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="J13">
-        <v>3000</v>
-      </c>
-      <c r="K13">
-        <v>4000</v>
-      </c>
-      <c r="M13" s="25">
-        <v>0.01</v>
-      </c>
-      <c r="N13">
-        <v>4000</v>
-      </c>
-      <c r="O13">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="14" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I14" s="24">
-        <v>0.02</v>
-      </c>
-      <c r="J14">
-        <v>1000</v>
-      </c>
-      <c r="K14">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="15" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I15" s="24">
-        <v>0.03</v>
-      </c>
-      <c r="K15">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="24">
-        <v>0.04</v>
-      </c>
-      <c r="K16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I17" s="24"/>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I19" t="s">
+      <c r="D21" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>17</v>
       </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>10000</v>
-      </c>
-      <c r="J20">
-        <v>10000</v>
+      <c r="B22">
+        <v>500</v>
+      </c>
+      <c r="D22" s="28">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
   </sheetData>

--- a/other/example_calculations.xlsx
+++ b/other/example_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Dropbox\other_projects\ethglobal_hackathon\Dollar_Hedge\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B908A78E-EF82-4552-AB76-5996CB428444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F4238-4CC7-4C9D-9658-60E53C8E49B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{25BBC0D7-EE17-4FED-9412-958CFE8270A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{25BBC0D7-EE17-4FED-9412-958CFE8270A9}"/>
   </bookViews>
   <sheets>
     <sheet name="v0_0_demo" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="v0_0_0" sheetId="1" r:id="rId3"/>
     <sheet name="v0_0_1" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Pool_example_0" sheetId="7" r:id="rId6"/>
+    <sheet name="Pool_example_1" sheetId="8" r:id="rId7"/>
+    <sheet name="Pool_example_2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="53">
   <si>
     <t>EUR/USD</t>
   </si>
@@ -108,23 +111,104 @@
     <t>Total Balance</t>
   </si>
   <si>
-    <t>new Principial Balance</t>
-  </si>
-  <si>
-    <t>new Total Balance</t>
-  </si>
-  <si>
     <t>interest rate</t>
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>investor 1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investor 2: </t>
+  </si>
+  <si>
+    <t>investor 3:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investor 4: </t>
+  </si>
+  <si>
+    <t>Pool (aDAI)</t>
+  </si>
+  <si>
+    <t>exchange rate (EUR/USD)</t>
+  </si>
+  <si>
+    <t>aEURs</t>
+  </si>
+  <si>
+    <t>aEURu</t>
+  </si>
+  <si>
+    <t>Pool interest</t>
+  </si>
+  <si>
+    <t>aEURs2Dai</t>
+  </si>
+  <si>
+    <t>aEURu2Dai</t>
+  </si>
+  <si>
+    <t>min exchange rate</t>
+  </si>
+  <si>
+    <t>max exhange rate</t>
+  </si>
+  <si>
+    <t>Investor 1:</t>
+  </si>
+  <si>
+    <t>Investor 2:</t>
+  </si>
+  <si>
+    <t>Share 2:</t>
+  </si>
+  <si>
+    <t>MACRO</t>
+  </si>
+  <si>
+    <t>aDAI 1:</t>
+  </si>
+  <si>
+    <t>aDAI 2:</t>
+  </si>
+  <si>
+    <t>ONE investor</t>
+  </si>
+  <si>
+    <t>DIFF</t>
+  </si>
+  <si>
+    <t>Share aEURs 1:</t>
+  </si>
+  <si>
+    <t>Share aEURs 2:</t>
+  </si>
+  <si>
+    <t>Share aEURu 1:</t>
+  </si>
+  <si>
+    <t>Share aEURu 2:</t>
+  </si>
+  <si>
+    <t>Retail investor :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +223,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +257,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -225,12 +335,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -250,6 +373,14 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,7 +408,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,7 +744,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,26 +761,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="27"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -914,7 +1062,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,24 +1079,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="27"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1206,27 +1354,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="27" t="s">
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="27"/>
+      <c r="O1" s="33"/>
       <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1543,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9153C59D-055B-4000-A9C0-76FE5B0E61A4}">
-  <dimension ref="A4:H22"/>
+  <dimension ref="A2:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,12 +1703,36 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="G3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1569,223 +1741,2225 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>500</v>
+        <f>G5+H5+I5+J5</f>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>505</v>
-      </c>
-      <c r="D5" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <f>B5+E5</f>
+        <v>100</v>
+      </c>
+      <c r="D5" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>500</v>
-      </c>
-      <c r="D6" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f>B5+G6</f>
+        <v>100</v>
+      </c>
+      <c r="C6" s="21">
+        <f>C5+E6</f>
+        <v>100.05</v>
+      </c>
+      <c r="D6" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E6" s="22">
+        <f>C5*D5</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>500</v>
-      </c>
-      <c r="D7" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B7:B22" si="0">B6+G7</f>
+        <v>100</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" ref="C7:C22" si="1">C6+E7</f>
+        <v>100.100025</v>
+      </c>
+      <c r="D7" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E7" s="22">
+        <f t="shared" ref="E7:E22" si="2">C6*D6</f>
+        <v>5.0025E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>500</v>
-      </c>
-      <c r="D8" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="1"/>
+        <v>100.1500750125</v>
+      </c>
+      <c r="D8" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0050012500000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>500</v>
-      </c>
-      <c r="D9" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C9" s="21">
+        <f t="shared" si="1"/>
+        <v>100.20015005000624</v>
+      </c>
+      <c r="D9" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0075037506249996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>500</v>
-      </c>
-      <c r="D10" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="1"/>
+        <v>100.25025012503124</v>
+      </c>
+      <c r="D10" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E10" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0100075025003125E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>500</v>
-      </c>
-      <c r="D11" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C11" s="21">
+        <f t="shared" si="1"/>
+        <v>100.30037525009377</v>
+      </c>
+      <c r="D11" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E11" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0125125062515624E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>500</v>
-      </c>
-      <c r="D12" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C12" s="21">
+        <f t="shared" si="1"/>
+        <v>100.35052543771882</v>
+      </c>
+      <c r="D12" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0150187625046881E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>500</v>
-      </c>
-      <c r="D13" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C13" s="21">
+        <f t="shared" si="1"/>
+        <v>100.40070070043767</v>
+      </c>
+      <c r="D13" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E13" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0175262718859408E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14">
-        <v>500</v>
-      </c>
-      <c r="D14" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C14" s="21">
+        <f t="shared" si="1"/>
+        <v>100.45090105078789</v>
+      </c>
+      <c r="D14" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E14" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0200350350218838E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15">
-        <v>500</v>
-      </c>
-      <c r="D15" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C15" s="21">
+        <f t="shared" si="1"/>
+        <v>100.50112650131328</v>
+      </c>
+      <c r="D15" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E15" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0225450525393948E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16">
-        <v>500</v>
-      </c>
-      <c r="D16" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C16" s="21">
+        <f t="shared" si="1"/>
+        <v>100.55137706456394</v>
+      </c>
+      <c r="D16" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E16" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0250563250656639E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17">
-        <v>500</v>
-      </c>
-      <c r="D17" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C17" s="21">
+        <f t="shared" si="1"/>
+        <v>100.60165275309622</v>
+      </c>
+      <c r="D17" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E17" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0275688532281967E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18">
-        <v>500</v>
-      </c>
-      <c r="D18" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C18" s="21">
+        <f t="shared" si="1"/>
+        <v>100.65195357947276</v>
+      </c>
+      <c r="D18" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0300826376548112E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19">
-        <v>500</v>
-      </c>
-      <c r="D19" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C19" s="21">
+        <f t="shared" si="1"/>
+        <v>100.7022795562625</v>
+      </c>
+      <c r="D19" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0325976789736382E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20">
-        <v>500</v>
-      </c>
-      <c r="D20" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C20" s="21">
+        <f t="shared" si="1"/>
+        <v>100.75263069604063</v>
+      </c>
+      <c r="D20" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" si="2"/>
+        <v>5.035113977813125E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21">
-        <v>500</v>
-      </c>
-      <c r="D21" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C21" s="21">
+        <f t="shared" si="1"/>
+        <v>100.80300701138864</v>
+      </c>
+      <c r="D21" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0376315348020312E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22">
-        <v>500</v>
-      </c>
-      <c r="D22" s="28">
-        <v>5.0000000000000001E-4</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C22" s="21">
+        <f t="shared" si="1"/>
+        <v>100.85340851489434</v>
+      </c>
+      <c r="D22" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="2"/>
+        <v>5.040150350569432E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:B45" si="3">B22+G23</f>
+        <v>100</v>
+      </c>
+      <c r="C23" s="21">
+        <f t="shared" ref="C23:C45" si="4">C22+E23</f>
+        <v>100.90383521915179</v>
+      </c>
+      <c r="D23" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E23" s="22">
+        <f t="shared" ref="E23:E45" si="5">C22*D22</f>
+        <v>5.042670425744717E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C24" s="21">
+        <f t="shared" si="4"/>
+        <v>100.95428713676137</v>
+      </c>
+      <c r="D24" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0451917609575896E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C25" s="21">
+        <f t="shared" si="4"/>
+        <v>101.00476428032975</v>
+      </c>
+      <c r="D25" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0477143568380685E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C26" s="21">
+        <f t="shared" si="4"/>
+        <v>101.05526666246992</v>
+      </c>
+      <c r="D26" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E26" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0502382140164878E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C27" s="21">
+        <f t="shared" si="4"/>
+        <v>101.10579429580115</v>
+      </c>
+      <c r="D27" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E27" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0527633331234958E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C28" s="21">
+        <f t="shared" si="4"/>
+        <v>101.15634719294904</v>
+      </c>
+      <c r="D28" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E28" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0552897147900573E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C29" s="21">
+        <f t="shared" si="4"/>
+        <v>101.20692536654552</v>
+      </c>
+      <c r="D29" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="5"/>
+        <v>5.057817359647452E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" si="4"/>
+        <v>101.25752882922879</v>
+      </c>
+      <c r="D30" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E30" s="22">
+        <f t="shared" si="5"/>
+        <v>5.060346268327276E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C31" s="21">
+        <f t="shared" si="4"/>
+        <v>101.3081575936434</v>
+      </c>
+      <c r="D31" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E31" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0628764414614398E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C32" s="21">
+        <f t="shared" si="4"/>
+        <v>101.35881167244023</v>
+      </c>
+      <c r="D32" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E32" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0654078796821704E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C33" s="21">
+        <f t="shared" si="4"/>
+        <v>101.40949107827645</v>
+      </c>
+      <c r="D33" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E33" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0679405836220111E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C34" s="21">
+        <f t="shared" si="4"/>
+        <v>101.46019582381558</v>
+      </c>
+      <c r="D34" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E34" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0704745539138223E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C35" s="21">
+        <f t="shared" si="4"/>
+        <v>101.51092592172749</v>
+      </c>
+      <c r="D35" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E35" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0730097911907794E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C36" s="21">
+        <f t="shared" si="4"/>
+        <v>101.56168138468836</v>
+      </c>
+      <c r="D36" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E36" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0755462960863744E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C37" s="21">
+        <f t="shared" si="4"/>
+        <v>101.6124622253807</v>
+      </c>
+      <c r="D37" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E37" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0780840692344176E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C38" s="21">
+        <f t="shared" si="4"/>
+        <v>101.66326845649338</v>
+      </c>
+      <c r="D38" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E38" s="22">
+        <f t="shared" si="5"/>
+        <v>5.080623111269035E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C39" s="21">
+        <f t="shared" si="4"/>
+        <v>101.71410009072163</v>
+      </c>
+      <c r="D39" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E39" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0831634228246693E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C40" s="21">
+        <f t="shared" si="4"/>
+        <v>101.764957140767</v>
+      </c>
+      <c r="D40" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E40" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0857050045360813E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C41" s="21">
+        <f t="shared" si="4"/>
+        <v>101.81583961933738</v>
+      </c>
+      <c r="D41" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E41" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0882478570383499E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C42" s="21">
+        <f t="shared" si="4"/>
+        <v>101.86674753914706</v>
+      </c>
+      <c r="D42" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E42" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0907919809668689E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C43" s="21">
+        <f t="shared" si="4"/>
+        <v>101.91768091291662</v>
+      </c>
+      <c r="D43" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E43" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0933373769573527E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C44" s="21">
+        <f t="shared" si="4"/>
+        <v>101.96863975337308</v>
+      </c>
+      <c r="D44" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E44" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0958840456458314E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C45" s="21">
+        <f t="shared" si="4"/>
+        <v>102.01962407324977</v>
+      </c>
+      <c r="D45" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E45" s="22">
+        <f t="shared" si="5"/>
+        <v>5.0984319876686543E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46:B55" si="6">B45+G46</f>
+        <v>100</v>
+      </c>
+      <c r="C46" s="21">
+        <f t="shared" ref="C46:C55" si="7">C45+E46</f>
+        <v>102.0706338852864</v>
+      </c>
+      <c r="D46" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E46" s="22">
+        <f t="shared" ref="E46:E55" si="8">C45*D45</f>
+        <v>5.1009812036624885E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C47" s="21">
+        <f t="shared" si="7"/>
+        <v>102.12166920222904</v>
+      </c>
+      <c r="D47" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E47" s="22">
+        <f t="shared" si="8"/>
+        <v>5.1035316942643197E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C48" s="21">
+        <f t="shared" si="7"/>
+        <v>102.17273003683016</v>
+      </c>
+      <c r="D48" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E48" s="22">
+        <f t="shared" si="8"/>
+        <v>5.1060834601114526E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C49" s="21">
+        <f t="shared" si="7"/>
+        <v>102.22381640184858</v>
+      </c>
+      <c r="D49" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E49" s="22">
+        <f t="shared" si="8"/>
+        <v>5.1086365018415084E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C50" s="21">
+        <f t="shared" si="7"/>
+        <v>102.2749283100495</v>
+      </c>
+      <c r="D50" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E50" s="22">
+        <f t="shared" si="8"/>
+        <v>5.1111908200924289E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C51" s="21">
+        <f t="shared" si="7"/>
+        <v>102.32606577420452</v>
+      </c>
+      <c r="D51" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E51" s="22">
+        <f t="shared" si="8"/>
+        <v>5.1137464155024751E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C52" s="21">
+        <f t="shared" si="7"/>
+        <v>102.37722880709163</v>
+      </c>
+      <c r="D52" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E52" s="22">
+        <f t="shared" si="8"/>
+        <v>5.1163032887102264E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C53" s="21">
+        <f t="shared" si="7"/>
+        <v>102.42841742149517</v>
+      </c>
+      <c r="D53" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E53" s="22">
+        <f t="shared" si="8"/>
+        <v>5.1188614403545815E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C54" s="21">
+        <f t="shared" si="7"/>
+        <v>102.47963163020592</v>
+      </c>
+      <c r="D54" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E54" s="22">
+        <f t="shared" si="8"/>
+        <v>5.1214208710747583E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C55" s="21">
+        <f t="shared" si="7"/>
+        <v>102.53087144602102</v>
+      </c>
+      <c r="D55" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E55" s="22">
+        <f t="shared" si="8"/>
+        <v>5.1239815815102958E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="21"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="21"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="22"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="21"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="22"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="21"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="21"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="21"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="22"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="21"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="21"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="22"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="21"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="21"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="21"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0A0D72-E096-47BF-9540-3D9A52B7889A}">
+  <dimension ref="B1:AA4"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="19" max="20" width="17.42578125" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <f>$C$3*0.5/$Y$3</f>
+        <v>4545.454545454545</v>
+      </c>
+      <c r="F3">
+        <f>E3*$Y$3</f>
+        <v>5000</v>
+      </c>
+      <c r="G3">
+        <f>$C$3*0.5</f>
+        <v>5000</v>
+      </c>
+      <c r="H3">
+        <f>G3</f>
+        <v>5000</v>
+      </c>
+      <c r="I3">
+        <v>5000</v>
+      </c>
+      <c r="J3">
+        <f>$I$3*0.5/$Y$3</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="K3">
+        <f>J3*$Y$3</f>
+        <v>2500</v>
+      </c>
+      <c r="L3">
+        <f>$I$3*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="M3">
+        <f>L3</f>
+        <v>2500</v>
+      </c>
+      <c r="N3">
+        <f>I3/($I$3+$O$3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <v>5000</v>
+      </c>
+      <c r="P3">
+        <f>$I$3*0.5/$Y$3</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="Q3">
+        <f>P3*$Y$3</f>
+        <v>2500</v>
+      </c>
+      <c r="R3">
+        <f>$I$3*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="S3">
+        <f>R3</f>
+        <v>2500</v>
+      </c>
+      <c r="T3">
+        <f>O3/($I$3+$O$3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <f>E3-J3-P3</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:X4" si="0">F3-K3-Q3</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z3">
+        <f>Y3*0.5</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA3">
+        <f>Y3*1.5</f>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f>C3+C3*D3</f>
+        <v>11000</v>
+      </c>
+      <c r="E4">
+        <f>E3</f>
+        <v>4545.454545454545</v>
+      </c>
+      <c r="F4">
+        <f>E4*MIN(MAX($Y$4,0.5*$Y$3),1.5*$Y$3)+($C$4-$C$3)/2</f>
+        <v>4590.9090909090901</v>
+      </c>
+      <c r="G4">
+        <f>G3</f>
+        <v>5000</v>
+      </c>
+      <c r="H4">
+        <f>G4*(2-MAX(MIN($Y$4/$Y$3,1.5),0.5)) + ($C$4-$C$3)/2</f>
+        <v>6409.090909090909</v>
+      </c>
+      <c r="J4">
+        <f>J3</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="K4">
+        <f>J4*MIN(MAX($Y$4,0.5*$Y$3),1.5*$Y$3)+($C$4-$C$3)/2*N4</f>
+        <v>2295.454545454545</v>
+      </c>
+      <c r="L4">
+        <f>L3</f>
+        <v>2500</v>
+      </c>
+      <c r="M4">
+        <f>L4*(2-MAX(MIN($Y$4/$Y$3,1.5),0.5)) + ($C$4-$C$3)/2*N4</f>
+        <v>3204.5454545454545</v>
+      </c>
+      <c r="N4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <f>P3</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="Q4">
+        <f>P4*MIN(MAX($Y$4,0.5*$Y$3),1.5*$Y$3)+($C$4-$C$3)/2*T4</f>
+        <v>2295.454545454545</v>
+      </c>
+      <c r="R4">
+        <f>R3</f>
+        <v>2500</v>
+      </c>
+      <c r="S4">
+        <f>R4*(2-MAX(MIN($Y$4/$Y$3,1.5),0.5)) + ($C$4-$C$3)/2*T4</f>
+        <v>3204.5454545454545</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <f>E4-J4-P4</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0.9</v>
+      </c>
+      <c r="Z4">
+        <f>Z3</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA4">
+        <f>AA3</f>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="U1:X1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D0E99-ABE4-4A55-8578-7BEF4A5CE33B}">
+  <dimension ref="B1:AC4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="20" max="22" width="17.42578125" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+    </row>
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f>I3+P3</f>
+        <v>10000</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <f>$C$3*0.5/$AA$3</f>
+        <v>4545.454545454545</v>
+      </c>
+      <c r="F3">
+        <f>E3*$AA$3</f>
+        <v>5000</v>
+      </c>
+      <c r="G3">
+        <f>$C$3*0.5</f>
+        <v>5000</v>
+      </c>
+      <c r="H3">
+        <f>G3</f>
+        <v>5000</v>
+      </c>
+      <c r="I3">
+        <v>5000</v>
+      </c>
+      <c r="J3">
+        <f>$I$3*0.5/$AA$3</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="K3">
+        <f>J3*$AA$3</f>
+        <v>2500</v>
+      </c>
+      <c r="L3">
+        <f>$I$3*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="M3">
+        <f>L3</f>
+        <v>2500</v>
+      </c>
+      <c r="N3">
+        <f>J3*$AA$3/$C$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="O3">
+        <f>M3/$C$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="P3">
+        <v>5000</v>
+      </c>
+      <c r="Q3">
+        <f>$P$3*0.5/$AA$3</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="R3">
+        <f>Q3*$AA$3</f>
+        <v>2500</v>
+      </c>
+      <c r="S3">
+        <f>$P$3*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="T3">
+        <f>S3</f>
+        <v>2500</v>
+      </c>
+      <c r="U3">
+        <f>Q3*$AA$3/$C$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="V3">
+        <f>T3/$C$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:Z4" si="0">E3-J3-Q3</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB3">
+        <f>AA3*0.5</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC3">
+        <f>AA3*1.5</f>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f>C3+C3*D3</f>
+        <v>11000</v>
+      </c>
+      <c r="E4">
+        <f>E3</f>
+        <v>4545.454545454545</v>
+      </c>
+      <c r="F4">
+        <f>E4*MIN(MAX($AA$4,0.5*$AA$3),1.5*$AA$3)+($C$4-$C$3)/2</f>
+        <v>4590.9090909090901</v>
+      </c>
+      <c r="G4">
+        <f>G3</f>
+        <v>5000</v>
+      </c>
+      <c r="H4">
+        <f>G4*(2-MAX(MIN($AA$4/$AA$3,1.5),0.5)) + ($C$4-$C$3)/2</f>
+        <v>6409.090909090909</v>
+      </c>
+      <c r="J4">
+        <f>J3</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="K4">
+        <f>J4*MIN(MAX($AA$4,0.5*$AA$3),1.5*$AA$3)+($C$4-$C$3)*N4</f>
+        <v>2295.454545454545</v>
+      </c>
+      <c r="L4">
+        <f>L3</f>
+        <v>2500</v>
+      </c>
+      <c r="M4">
+        <f>L4*(2-MAX(MIN($AA$4/$AA$3,1.5),0.5)) + ($C$4-$C$3)*O4</f>
+        <v>3204.5454545454545</v>
+      </c>
+      <c r="N4">
+        <f>J4*$AA$3/$C$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="O4">
+        <f>L4/$C$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q4">
+        <f>Q3</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="R4">
+        <f>Q4*MIN(MAX($AA$4,0.5*$AA$3),1.5*$AA$3)+($C$4-$C$3)*U4</f>
+        <v>2295.454545454545</v>
+      </c>
+      <c r="S4">
+        <f>S3</f>
+        <v>2500</v>
+      </c>
+      <c r="T4">
+        <f>S4*(2-MAX(MIN($AA$4/$AA$3,1.5),0.5)) + ($C$4-$C$3)*V4</f>
+        <v>3204.5454545454545</v>
+      </c>
+      <c r="U4">
+        <f>Q4*$AA$3/$C$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="V4">
+        <f>S4/$C$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0.9</v>
+      </c>
+      <c r="AB4">
+        <f>AB3</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC4">
+        <f>AC3</f>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F335EC89-2BD1-4451-B043-3B2E2E0FDCAD}">
+  <dimension ref="A1:AI4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="19" max="21" width="17.42578125" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" customWidth="1"/>
+    <col min="26" max="26" width="11" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f>H3+O3</f>
+        <v>10000</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <f>$B$3*0.5/$AG$3</f>
+        <v>4545.454545454545</v>
+      </c>
+      <c r="E3">
+        <f>D3*$AG$3</f>
+        <v>5000</v>
+      </c>
+      <c r="F3">
+        <f>$B$3*0.5</f>
+        <v>5000</v>
+      </c>
+      <c r="G3">
+        <f>F3</f>
+        <v>5000</v>
+      </c>
+      <c r="H3">
+        <v>5000</v>
+      </c>
+      <c r="I3">
+        <f>H3*0.5/$AG$3</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="J3">
+        <f>I3*$AG$3</f>
+        <v>2500</v>
+      </c>
+      <c r="K3">
+        <f>H3*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="L3">
+        <f>K3</f>
+        <v>2500</v>
+      </c>
+      <c r="M3">
+        <f>I3*$AG$3/$B$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="N3">
+        <f>L3/$B$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="O3">
+        <v>5000</v>
+      </c>
+      <c r="P3">
+        <f>$O$3*0.5/$AG$3</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="Q3">
+        <f>P3*$AG$3</f>
+        <v>2500</v>
+      </c>
+      <c r="R3">
+        <f>$O$3*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="S3">
+        <f>R3</f>
+        <v>2500</v>
+      </c>
+      <c r="T3">
+        <f>P3*$AG$3/$B$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="U3">
+        <f>S3/$B$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:Y4" si="0">D3-I3-P3</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH3">
+        <f>AG3*0.5</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI3">
+        <f>AG3*1.5</f>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>B3+B3*C3</f>
+        <v>11000</v>
+      </c>
+      <c r="D4">
+        <f>D3</f>
+        <v>4545.454545454545</v>
+      </c>
+      <c r="E4">
+        <f>D4*MIN(MAX($AG$4,0.5*$AG$3),1.5*$AG$3)+($B$4-$B$3)/2</f>
+        <v>4590.9090909090901</v>
+      </c>
+      <c r="F4">
+        <f>F3</f>
+        <v>5000</v>
+      </c>
+      <c r="G4">
+        <f>F4*(2-MAX(MIN($AG$4/$AG$3,1.5),0.5)) + ($B$4-$B$3)/2</f>
+        <v>6409.090909090909</v>
+      </c>
+      <c r="I4">
+        <f>I3</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="J4">
+        <f>I4*MIN(MAX($AG$4,0.5*$AG$3),1.5*$AG$3)+($B$4-$B$3)*M4</f>
+        <v>2295.454545454545</v>
+      </c>
+      <c r="K4">
+        <f>K3</f>
+        <v>2500</v>
+      </c>
+      <c r="L4">
+        <f>K4*(2-MAX(MIN($AG$4/$AG$3,1.5),0.5)) + ($B$4-$B$3)*N4</f>
+        <v>3204.5454545454545</v>
+      </c>
+      <c r="M4">
+        <f>I4*$AG$3/$B$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="N4">
+        <f>K4/$B$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="P4">
+        <f>P3-AA4</f>
+        <v>272.72727272727252</v>
+      </c>
+      <c r="Q4">
+        <f>P4*MIN(MAX($AG$4,0.5*$AG$3),1.5*$AG$3)+($B$4-$B$3)*T4</f>
+        <v>275.45454545454527</v>
+      </c>
+      <c r="R4">
+        <f>R3</f>
+        <v>2500</v>
+      </c>
+      <c r="S4">
+        <f>R4*(2-MAX(MIN($AG$4/$AG$3,1.5),0.5)) + ($B$4-$B$3)*U4</f>
+        <v>3204.5454545454545</v>
+      </c>
+      <c r="T4">
+        <f>P4*$AG$3/$B$3</f>
+        <v>2.9999999999999978E-2</v>
+      </c>
+      <c r="U4">
+        <f>R4/$B$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="V4">
+        <f>D4-I4-P4-AA4</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>E4-J4-Q4-AB4</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>2000</v>
+      </c>
+      <c r="AB4">
+        <f>AA4*MIN(MAX($AG$4,0.5*$AG$3),1.5*$AG$3)+($B$4-$B$3)*AE4</f>
+        <v>2020</v>
+      </c>
+      <c r="AC4">
+        <f>AC3</f>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f>AC4*(2-MAX(MIN($AG$4/$AG$3,1.5),0.5)) + ($B$4-$B$3)*AF4</f>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f>AA4*$AG$3/$B$3</f>
+        <v>0.22</v>
+      </c>
+      <c r="AF4">
+        <f>AC4/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0.9</v>
+      </c>
+      <c r="AH4">
+        <f>AH3</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI4">
+        <f>AI3</f>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="Z1:AF1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/other/example_calculations.xlsx
+++ b/other/example_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Dropbox\other_projects\ethglobal_hackathon\Dollar_Hedge\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F4238-4CC7-4C9D-9658-60E53C8E49B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8C85F5-3EDD-4FD5-9290-5045DBC22FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{25BBC0D7-EE17-4FED-9412-958CFE8270A9}"/>
   </bookViews>
@@ -3541,10 +3541,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F335EC89-2BD1-4451-B043-3B2E2E0FDCAD}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="D3">
         <f>$B$3*0.5/$AG$3</f>
-        <v>4545.454545454545</v>
+        <v>4230.6016338583513</v>
       </c>
       <c r="E3">
         <f>D3*$AG$3</f>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="I3">
         <f>H3*0.5/$AG$3</f>
-        <v>2272.7272727272725</v>
+        <v>2115.3008169291757</v>
       </c>
       <c r="J3">
         <f>I3*$AG$3</f>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="P3">
         <f>$O$3*0.5/$AG$3</f>
-        <v>2272.7272727272725</v>
+        <v>2115.3008169291757</v>
       </c>
       <c r="Q3">
         <f>P3*$AG$3</f>
@@ -3816,15 +3816,15 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.1000000000000001</v>
+        <v>1.1818649999999999</v>
       </c>
       <c r="AH3">
         <f>AG3*0.5</f>
-        <v>0.55000000000000004</v>
+        <v>0.59093249999999997</v>
       </c>
       <c r="AI3">
         <f>AG3*1.5</f>
-        <v>1.6500000000000001</v>
+        <v>1.7727974999999998</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -3837,11 +3837,11 @@
       </c>
       <c r="D4">
         <f>D3</f>
-        <v>4545.454545454545</v>
+        <v>4230.6016338583513</v>
       </c>
       <c r="E4">
         <f>D4*MIN(MAX($AG$4,0.5*$AG$3),1.5*$AG$3)+($B$4-$B$3)/2</f>
-        <v>4590.9090909090901</v>
+        <v>6769.180490157506</v>
       </c>
       <c r="F4">
         <f>F3</f>
@@ -3849,15 +3849,15 @@
       </c>
       <c r="G4">
         <f>F4*(2-MAX(MIN($AG$4/$AG$3,1.5),0.5)) + ($B$4-$B$3)/2</f>
-        <v>6409.090909090909</v>
+        <v>4230.8195098424949</v>
       </c>
       <c r="I4">
         <f>I3</f>
-        <v>2272.7272727272725</v>
+        <v>2115.3008169291757</v>
       </c>
       <c r="J4">
         <f>I4*MIN(MAX($AG$4,0.5*$AG$3),1.5*$AG$3)+($B$4-$B$3)*M4</f>
-        <v>2295.454545454545</v>
+        <v>3384.590245078753</v>
       </c>
       <c r="K4">
         <f>K3</f>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="L4">
         <f>K4*(2-MAX(MIN($AG$4/$AG$3,1.5),0.5)) + ($B$4-$B$3)*N4</f>
-        <v>3204.5454545454545</v>
+        <v>2115.4097549212474</v>
       </c>
       <c r="M4">
         <f>I4*$AG$3/$B$3</f>
@@ -3877,11 +3877,11 @@
       </c>
       <c r="P4">
         <f>P3-AA4</f>
-        <v>272.72727272727252</v>
+        <v>115.30081692917565</v>
       </c>
       <c r="Q4">
         <f>P4*MIN(MAX($AG$4,0.5*$AG$3),1.5*$AG$3)+($B$4-$B$3)*T4</f>
-        <v>275.45454545454527</v>
+        <v>184.48724507875289</v>
       </c>
       <c r="R4">
         <f>R3</f>
@@ -3889,11 +3889,11 @@
       </c>
       <c r="S4">
         <f>R4*(2-MAX(MIN($AG$4/$AG$3,1.5),0.5)) + ($B$4-$B$3)*U4</f>
-        <v>3204.5454545454545</v>
+        <v>2115.4097549212474</v>
       </c>
       <c r="T4">
         <f>P4*$AG$3/$B$3</f>
-        <v>2.9999999999999978E-2</v>
+        <v>1.3627000000000018E-2</v>
       </c>
       <c r="U4">
         <f>R4/$B$3</f>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="AB4">
         <f>AA4*MIN(MAX($AG$4,0.5*$AG$3),1.5*$AG$3)+($B$4-$B$3)*AE4</f>
-        <v>2020</v>
+        <v>3200.1030000000001</v>
       </c>
       <c r="AC4">
         <f>AC3</f>
@@ -3932,22 +3932,41 @@
       </c>
       <c r="AE4">
         <f>AA4*$AG$3/$B$3</f>
-        <v>0.22</v>
+        <v>0.236373</v>
       </c>
       <c r="AF4">
         <f>AC4/$B$3</f>
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.9</v>
+        <v>1.481865</v>
       </c>
       <c r="AH4">
         <f>AH3</f>
-        <v>0.55000000000000004</v>
+        <v>0.59093249999999997</v>
       </c>
       <c r="AI4">
         <f>AI3</f>
-        <v>1.6500000000000001</v>
+        <v>1.7727974999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f>(2-MAX(MIN($AG$4/$AG$3,1.5),0.5))</f>
+        <v>0.74616390196849891</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f>5*10^8</f>
+        <v>500000000</v>
+      </c>
+      <c r="N10">
+        <f>MAX(MIN($AG$4/$AG$3,1.5),0.5)</f>
+        <v>1.2538360980315011</v>
       </c>
     </row>
   </sheetData>

--- a/other/example_calculations.xlsx
+++ b/other/example_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Dropbox\other_projects\ethglobal_hackathon\Dollar_Hedge\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8C85F5-3EDD-4FD5-9290-5045DBC22FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003071E-3B9D-4B0C-9F66-C2216DA325E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{25BBC0D7-EE17-4FED-9412-958CFE8270A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{25BBC0D7-EE17-4FED-9412-958CFE8270A9}"/>
   </bookViews>
   <sheets>
     <sheet name="v0_0_demo" sheetId="5" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,15 +1230,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C7" s="5">
         <f>(1+B7)*$C$3</f>
-        <v>2.383</v>
+        <v>2.3710849999999999</v>
       </c>
       <c r="D7" s="3">
         <f>$D$3*(1-L7)*C7/$C$3</f>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E7" s="3">
         <f>D7/$C7</f>
@@ -1246,19 +1246,19 @@
       </c>
       <c r="F7" s="7">
         <f>D7/$D$3-1</f>
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G7" s="4">
         <f>(1+L7)*($J$3-D7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
         <f>G7/$C$3</f>
-        <v>0</v>
+        <v>0.839278220730172</v>
       </c>
       <c r="I7" s="10">
         <f>G7/$G$3-1</f>
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="J7" s="1">
         <f>D7+G7</f>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="K7" s="1">
         <f>E7+H7</f>
-        <v>83.927822073017211</v>
+        <v>84.767100293747376</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -1277,15 +1277,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>-0.9</v>
+        <v>-0.99</v>
       </c>
       <c r="C9" s="5">
         <f>(1+B9)*$C$3</f>
-        <v>0.11914999999999998</v>
+        <v>1.1915000000000011E-2</v>
       </c>
       <c r="D9" s="3">
         <f>$D$3*(1-L9)*C9/$C$3</f>
-        <v>9.9999999999999982</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="E9" s="3">
         <f>D9/$C9</f>
@@ -1293,19 +1293,19 @@
       </c>
       <c r="F9" s="7">
         <f>D9/$D$3-1</f>
-        <v>-0.9</v>
+        <v>-0.99</v>
       </c>
       <c r="G9" s="4">
         <f>(1+L9)*($J$3-D9)</f>
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="H9" s="4">
         <f>G9/$C$3</f>
-        <v>159.46286193873269</v>
+        <v>167.01636592530423</v>
       </c>
       <c r="I9" s="10">
         <f>G9/$G$3-1</f>
-        <v>0.89999999999999991</v>
+        <v>0.99</v>
       </c>
       <c r="J9" s="1">
         <f>D9+G9</f>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="K9" s="1">
         <f>E9+H9</f>
-        <v>243.3906840117499</v>
+        <v>250.94418799832144</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -3541,10 +3541,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F335EC89-2BD1-4451-B043-3B2E2E0FDCAD}">
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,25 +3950,6 @@
         <v>1.7727974999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="M9">
-        <f>(2-MAX(MIN($AG$4/$AG$3,1.5),0.5))</f>
-        <v>0.74616390196849891</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="J10">
-        <f>5*10^8</f>
-        <v>500000000</v>
-      </c>
-      <c r="N10">
-        <f>MAX(MIN($AG$4/$AG$3,1.5),0.5)</f>
-        <v>1.2538360980315011</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D1:G1"/>

--- a/other/example_calculations.xlsx
+++ b/other/example_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Dropbox\other_projects\ethglobal_hackathon\Dollar_Hedge\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003071E-3B9D-4B0C-9F66-C2216DA325E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECD368D-A3AD-433A-A0DF-4EB350CB5384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{25BBC0D7-EE17-4FED-9412-958CFE8270A9}"/>
+    <workbookView xWindow="33105" yWindow="30" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="7" xr2:uid="{25BBC0D7-EE17-4FED-9412-958CFE8270A9}"/>
   </bookViews>
   <sheets>
     <sheet name="v0_0_demo" sheetId="5" r:id="rId1"/>
@@ -3543,8 +3543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F335EC89-2BD1-4451-B043-3B2E2E0FDCAD}">
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
